--- a/tasks.xlsx
+++ b/tasks.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projects\lab1\Lab1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projects\OnLab1\OnLab1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B892F15-C421-486F-93E6-635740485518}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44130754-90DD-42B4-8CD9-5D25D9BE6038}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38280" yWindow="9900" windowWidth="15600" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -106,12 +106,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -126,8 +132,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -411,18 +418,18 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="B3" sqref="B3:C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="42.42578125" customWidth="1"/>
-    <col min="2" max="2" width="71.5703125" customWidth="1"/>
-    <col min="3" max="3" width="43.28515625" customWidth="1"/>
-    <col min="4" max="4" width="10.42578125" customWidth="1"/>
+    <col min="1" max="1" width="42.44140625" customWidth="1"/>
+    <col min="2" max="2" width="71.5546875" customWidth="1"/>
+    <col min="3" max="3" width="43.33203125" customWidth="1"/>
+    <col min="4" max="4" width="10.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -433,26 +440,27 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C2" s="1"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -463,7 +471,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -474,7 +482,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -485,7 +493,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>6</v>
       </c>

--- a/tasks.xlsx
+++ b/tasks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projects\OnLab1\OnLab1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44130754-90DD-42B4-8CD9-5D25D9BE6038}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BE19E15-F544-418B-B040-3B53E037931E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="9900" windowWidth="15600" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
   <si>
     <t>Szeptember 18 - Október 1</t>
   </si>
@@ -51,9 +51,6 @@
     <t>Project elkészítése, specifikáció, ablak létrehozása, renderelés, game loop</t>
   </si>
   <si>
-    <t>ellenségek, boss</t>
-  </si>
-  <si>
     <t>játékos mozgás, collision, akadályok, HUD</t>
   </si>
   <si>
@@ -72,19 +69,31 @@
     <t>itemek , fegyverek, lövedékek</t>
   </si>
   <si>
-    <t>ellenségek, boss, ellenséges lövedékek</t>
-  </si>
-  <si>
-    <t>(skillTree), lemaradások behozása</t>
-  </si>
-  <si>
     <t>lemaradások behozása</t>
   </si>
   <si>
-    <t>xp, szintlépés, (skillTree), menü (nincs mentés)</t>
-  </si>
-  <si>
     <t>játékos karakter, akadályok, HUD, háttér</t>
+  </si>
+  <si>
+    <t>Lemaradás</t>
+  </si>
+  <si>
+    <t>Lemaradás pótolása</t>
+  </si>
+  <si>
+    <t>fegyverek, lövedékek</t>
+  </si>
+  <si>
+    <t>ellenségek</t>
+  </si>
+  <si>
+    <t>ellenségek, ellenséges lövedékek</t>
+  </si>
+  <si>
+    <t>boss, skillTree, lemaradások behozása</t>
+  </si>
+  <si>
+    <t>boss, xp, szintlépés, skillTree, menü (nincs mentés)</t>
   </si>
 </sst>
 </file>
@@ -106,7 +115,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -116,6 +125,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -132,9 +147,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -415,10 +431,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:C3"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -426,21 +442,28 @@
     <col min="1" max="1" width="42.44140625" customWidth="1"/>
     <col min="2" max="2" width="71.5546875" customWidth="1"/>
     <col min="3" max="3" width="43.33203125" customWidth="1"/>
-    <col min="4" max="4" width="10.44140625" customWidth="1"/>
+    <col min="4" max="4" width="28" customWidth="1"/>
+    <col min="5" max="5" width="26.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>2</v>
       </c>
       <c r="B1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" t="s">
         <v>12</v>
       </c>
-      <c r="C1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -449,59 +472,65 @@
       </c>
       <c r="C2" s="1"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="C5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+      <c r="E5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/tasks.xlsx
+++ b/tasks.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projects\OnLab1\OnLab1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BE19E15-F544-418B-B040-3B53E037931E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC389A3D-409F-456E-B2D4-C59E0A4C4564}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="9900" windowWidth="15600" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>Szeptember 18 - Október 1</t>
   </si>
@@ -54,46 +54,34 @@
     <t>játékos mozgás, collision, akadályok, HUD</t>
   </si>
   <si>
-    <t>dokumentáció, végső javítások</t>
-  </si>
-  <si>
-    <t>itemek, fegyverek, lövedékek, inventory</t>
-  </si>
-  <si>
     <t>Programozási Feladatok</t>
   </si>
   <si>
     <t>Grafikai feladatok</t>
   </si>
   <si>
-    <t>itemek , fegyverek, lövedékek</t>
-  </si>
-  <si>
-    <t>lemaradások behozása</t>
-  </si>
-  <si>
     <t>játékos karakter, akadályok, HUD, háttér</t>
   </si>
   <si>
-    <t>Lemaradás</t>
-  </si>
-  <si>
-    <t>Lemaradás pótolása</t>
-  </si>
-  <si>
-    <t>fegyverek, lövedékek</t>
-  </si>
-  <si>
     <t>ellenségek</t>
   </si>
   <si>
-    <t>ellenségek, ellenséges lövedékek</t>
-  </si>
-  <si>
-    <t>boss, skillTree, lemaradások behozása</t>
-  </si>
-  <si>
-    <t>boss, xp, szintlépés, skillTree, menü (nincs mentés)</t>
+    <t>itemek, lövedékek, inventory</t>
+  </si>
+  <si>
+    <t>itemek , lövedékek</t>
+  </si>
+  <si>
+    <t>fegyverek, melee ellenségek</t>
+  </si>
+  <si>
+    <t>fegyverek, ellenségek</t>
+  </si>
+  <si>
+    <t>mapgen, ranged ellenségek</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> xp, szintlépés, skillTree, menü (nincs mentés), dokumentáció, végső javítások</t>
   </si>
 </sst>
 </file>
@@ -130,7 +118,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -147,9 +135,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -431,10 +420,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -446,24 +435,18 @@
     <col min="5" max="5" width="26.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>2</v>
       </c>
       <c r="B1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -472,7 +455,7 @@
       </c>
       <c r="C2" s="1"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -480,57 +463,49 @@
         <v>8</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="2" t="s">
+      <c r="B4" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="2"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/tasks.xlsx
+++ b/tasks.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projects\OnLab1\OnLab1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC389A3D-409F-456E-B2D4-C59E0A4C4564}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F5EAD81-5C32-424E-A5D8-73319FA7AA45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -81,7 +81,7 @@
     <t>mapgen, ranged ellenségek</t>
   </si>
   <si>
-    <t xml:space="preserve"> xp, szintlépés, skillTree, menü (nincs mentés), dokumentáció, végső javítások</t>
+    <t xml:space="preserve"> xp, szintlépés, skillTree, menü (nincs mentés), dokumentáció, végső javítások + path finding</t>
   </si>
 </sst>
 </file>
@@ -135,10 +135,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -420,22 +419,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="42.44140625" customWidth="1"/>
-    <col min="2" max="2" width="71.5546875" customWidth="1"/>
+    <col min="2" max="2" width="84.6640625" customWidth="1"/>
     <col min="3" max="3" width="43.33203125" customWidth="1"/>
     <col min="4" max="4" width="28" customWidth="1"/>
     <col min="5" max="5" width="26.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -446,7 +445,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -455,7 +454,7 @@
       </c>
       <c r="C2" s="1"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -466,41 +465,40 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="2"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>5</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>6</v>
       </c>
